--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_DeepAR_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_DeepAR_General.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.542314156439847</v>
+        <v>0.544108002761951</v>
       </c>
       <c r="D2">
-        <v>0.5876260866121727</v>
+        <v>0.5899178377614889</v>
       </c>
       <c r="E2">
         <v>1.561135916964455</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.1186389983974883</v>
+        <v>-0.1717742808392656</v>
       </c>
       <c r="D3">
-        <v>0.9055660962417655</v>
+        <v>0.8646333209788317</v>
       </c>
       <c r="E3">
         <v>1.561135916964455</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-1.472208791581035</v>
+        <v>-1.125771030857224</v>
       </c>
       <c r="D4">
-        <v>0.1410269558436004</v>
+        <v>0.2681464611039448</v>
       </c>
       <c r="E4">
         <v>1.561135916964455</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.2391285908769453</v>
+        <v>-0.2711000261073233</v>
       </c>
       <c r="D5">
-        <v>0.8110155974587832</v>
+        <v>0.7879532771660034</v>
       </c>
       <c r="E5">
         <v>1.561135916964455</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.7927537246197727</v>
+        <v>-0.7046827443844143</v>
       </c>
       <c r="D6">
-        <v>0.4279586443432102</v>
+        <v>0.4858070976686637</v>
       </c>
       <c r="E6">
         <v>1.438099087777091</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.687189427164035</v>
+        <v>-1.101916103017213</v>
       </c>
       <c r="D7">
-        <v>0.09162882652070481</v>
+        <v>0.2782376315500676</v>
       </c>
       <c r="E7">
         <v>1.438099087777091</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.8086313893266329</v>
+        <v>-0.6411013706959228</v>
       </c>
       <c r="D8">
-        <v>0.4187653793703554</v>
+        <v>0.5257550380154998</v>
       </c>
       <c r="E8">
         <v>1.438099087777091</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.200515896941185</v>
+        <v>-1.197692430595533</v>
       </c>
       <c r="D9">
-        <v>0.2299954750262545</v>
+        <v>0.239320000207796</v>
       </c>
       <c r="E9">
         <v>1.592852325038163</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.1568959712315646</v>
+        <v>-0.2234485918706526</v>
       </c>
       <c r="D10">
-        <v>0.8753331207100135</v>
+        <v>0.8245235438414715</v>
       </c>
       <c r="E10">
         <v>1.592852325038163</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.909996591097456</v>
+        <v>1.287159237078364</v>
       </c>
       <c r="D11">
-        <v>0.3628678322371495</v>
+        <v>0.2067327862896275</v>
       </c>
       <c r="E11">
         <v>1.994663384440887</v>
